--- a/biology/Zoologie/Geodia/Geodia.xlsx
+++ b/biology/Zoologie/Geodia/Geodia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Geodia Écouter forment un genre d'éponge siliceuse regroupant plus de 160 espèces[1]. Les Geodia ont une répartition géographique quasi-mondiale (elles sont absentes en Antarctique), et sont présentes depuis les eaux littorales jusqu'aux profondeurs bathyales. Geodia est traditionnellement caractérisé par la présence de microsclères (micro-spicules) en forme de boule appelés sterrasters. Ceux-ci forment la couche interne du cortex (endocortex). La couche externe de l'éponge (ectocortex) est formé par une autre catégorie d' euasters: strongylasters, spherasters, oxyasters etc. Bien souvent, d'autres catégories d' euasters sont présents dans le choanosome. C'est souvent la morphologie des microsclères (taille et forme) qui permet d'identifier les différentes espèces. D'autre part, comme chez les autres Astrophorida, les Geodia ont des megasclères (macro-spicules) à quatre branches appelés triaenes. Ces triaenes ont été perdus chez quelques espèces de Geodia, autrefois réunis dans le genre Geodinella Lendenfeld, 1903 (ex:G. robusta, G. spherastrosa, G. hyotania).
-Des études phylogénétiques moléculaires ont montré que les sterrasters ont été perdus plusieurs fois au cours de l'évolution[2].
-Des analyses phylogénétiques moléculaires ont montré que les genres Isops Sollas, 1880 et Sidonops Sollas, 1889 sont synonymes de Geodia[3]. De plus, depuis Morrow &amp; Cárdenas (2015), Astrophorida n'est plus accepté comme un ordre et est devenu un sous-ordre de Tetractinellida, auquel le genre Geodia est donc désormais rattaché[4]. 
-Les Geodia tropicales peuvent être consommées par les tortues imbriquées[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Geodia Écouter forment un genre d'éponge siliceuse regroupant plus de 160 espèces. Les Geodia ont une répartition géographique quasi-mondiale (elles sont absentes en Antarctique), et sont présentes depuis les eaux littorales jusqu'aux profondeurs bathyales. Geodia est traditionnellement caractérisé par la présence de microsclères (micro-spicules) en forme de boule appelés sterrasters. Ceux-ci forment la couche interne du cortex (endocortex). La couche externe de l'éponge (ectocortex) est formé par une autre catégorie d' euasters: strongylasters, spherasters, oxyasters etc. Bien souvent, d'autres catégories d' euasters sont présents dans le choanosome. C'est souvent la morphologie des microsclères (taille et forme) qui permet d'identifier les différentes espèces. D'autre part, comme chez les autres Astrophorida, les Geodia ont des megasclères (macro-spicules) à quatre branches appelés triaenes. Ces triaenes ont été perdus chez quelques espèces de Geodia, autrefois réunis dans le genre Geodinella Lendenfeld, 1903 (ex:G. robusta, G. spherastrosa, G. hyotania).
+Des études phylogénétiques moléculaires ont montré que les sterrasters ont été perdus plusieurs fois au cours de l'évolution.
+Des analyses phylogénétiques moléculaires ont montré que les genres Isops Sollas, 1880 et Sidonops Sollas, 1889 sont synonymes de Geodia. De plus, depuis Morrow &amp; Cárdenas (2015), Astrophorida n'est plus accepté comme un ordre et est devenu un sous-ordre de Tetractinellida, auquel le genre Geodia est donc désormais rattaché. 
+Les Geodia tropicales peuvent être consommées par les tortues imbriquées.
 L'espèce la plus commune en Méditerranée est Geodia cydonium.
-En 2023, une équipe de l'université d'Uppsala menée par le spongiologue français Paco Cárdenas publie le génome complet de Geodia barretti. C'est le premier génome publié pour toutes les espèces de l'ordre Tetractinellida[6].
+En 2023, une équipe de l'université d'Uppsala menée par le spongiologue français Paco Cárdenas publie le génome complet de Geodia barretti. C'est le premier génome publié pour toutes les espèces de l'ordre Tetractinellida.
 </t>
         </is>
       </c>
@@ -516,7 +528,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Geodia acanthylastra Lendenfeld, 1910
